--- a/业绩报表/830852.xlsx
+++ b/业绩报表/830852.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2020-12-18 00:00:00</t>
+          <t>2020-12-21 00:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
